--- a/config_3.9/banner_style_ui.xlsx
+++ b/config_3.9/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1631,7 +1631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4390,10 +4390,10 @@
         <v>22</v>
       </c>
       <c r="K90" s="42">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="L90" s="42">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4443,6 +4443,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4450,31 +4458,13 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4491,44 +4481,54 @@
 </comments>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>